--- a/prototypes/音之舞帐号.xlsx
+++ b/prototypes/音之舞帐号.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="account" sheetId="1" r:id="rId1"/>
     <sheet name="tasklist" sheetId="2" r:id="rId2"/>
-    <sheet name="加班" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -78,274 +77,421 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="145">
+  <si>
+    <t>帐号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dodoca.com/index</t>
+  </si>
+  <si>
+    <t>yinzhiwumichael     </t>
+  </si>
+  <si>
+    <t>"音之舞舞蹈全国连锁" 微信公众平台帐号</t>
+  </si>
+  <si>
+    <t>映像名称</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>会话名</t>
+  </si>
+  <si>
+    <t>会话#</t>
+  </si>
+  <si>
+    <t>内存使用</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>smss.exe</t>
+  </si>
+  <si>
+    <t>csrss.exe</t>
+  </si>
+  <si>
+    <t>wininit.exe</t>
+  </si>
+  <si>
+    <t>Console</t>
+  </si>
+  <si>
+    <t>winlogon.exe</t>
+  </si>
+  <si>
+    <t>services.exe</t>
+  </si>
+  <si>
+    <t>lsass.exe</t>
+  </si>
+  <si>
+    <t>lsm.exe</t>
+  </si>
+  <si>
+    <t>svchost.exe</t>
+  </si>
+  <si>
+    <t>igfxCUIService.exe</t>
+  </si>
+  <si>
+    <t>spoolsv.exe</t>
+  </si>
+  <si>
+    <t>httpd.exe</t>
+  </si>
+  <si>
+    <t>atkexComSvc.exe</t>
+  </si>
+  <si>
+    <t>FoxitProtect.exe</t>
+  </si>
+  <si>
+    <t>HuaweiHiSuiteService64.ex</t>
+  </si>
+  <si>
+    <t>QQProtect.exe</t>
+  </si>
+  <si>
+    <t>vmnat.exe</t>
+  </si>
+  <si>
+    <t>vmnetdhcp.exe</t>
+  </si>
+  <si>
+    <t>vmware-usbarbitrator64.ex</t>
+  </si>
+  <si>
+    <t>vmware-authd.exe</t>
+  </si>
+  <si>
+    <t>vmware-hostd.exe</t>
+  </si>
+  <si>
+    <t>WUDFHost.exe</t>
+  </si>
+  <si>
+    <t>taskeng.exe</t>
+  </si>
+  <si>
+    <t>PresentationFontCache.exe</t>
+  </si>
+  <si>
+    <t>dwm.exe</t>
+  </si>
+  <si>
+    <t>taskhost.exe</t>
+  </si>
+  <si>
+    <t>explorer.exe</t>
+  </si>
+  <si>
+    <t>GoogleUpdate.exe</t>
+  </si>
+  <si>
+    <t>GooglePinyinDaemon.exe</t>
+  </si>
+  <si>
+    <t>QQPYService.exe</t>
+  </si>
+  <si>
+    <t>RAVCpl64.exe</t>
+  </si>
+  <si>
+    <t>igfxEM.exe</t>
+  </si>
+  <si>
+    <t>igfxHK.exe</t>
+  </si>
+  <si>
+    <t>igfxTray.exe</t>
+  </si>
+  <si>
+    <t>YunDetectService.exe</t>
+  </si>
+  <si>
+    <t>Jingoal.exe</t>
+  </si>
+  <si>
+    <t>QQPYClipMonitor.exe</t>
+  </si>
+  <si>
+    <t>vmware-tray.exe</t>
+  </si>
+  <si>
+    <t>MmReminderService.exe</t>
+  </si>
+  <si>
+    <t>TXPlatform.exe</t>
+  </si>
+  <si>
+    <t>JGExternal.exe</t>
+  </si>
+  <si>
+    <t>GoogleCrashHandler.exe</t>
+  </si>
+  <si>
+    <t>GoogleCrashHandler64.exe</t>
+  </si>
+  <si>
+    <t>QQ.exe</t>
+  </si>
+  <si>
+    <t>GooglePinyinService.exe</t>
+  </si>
+  <si>
+    <t>SearchIndexer.exe</t>
+  </si>
+  <si>
+    <t>wmpnetwk.exe</t>
+  </si>
+  <si>
+    <t>audiodg.exe</t>
+  </si>
+  <si>
+    <t>firefox.exe</t>
+  </si>
+  <si>
+    <t>plugin-container.exe</t>
+  </si>
+  <si>
+    <t>FlashPlayerPlugin_23_0_0_</t>
+  </si>
+  <si>
+    <t>WINWORD.EXE</t>
+  </si>
+  <si>
+    <t>vmware.exe</t>
+  </si>
+  <si>
+    <t>dllhost.exe</t>
+  </si>
+  <si>
+    <t>vmware-unity-helper.exe</t>
+  </si>
+  <si>
+    <t>vmware-vmx.exe</t>
+  </si>
+  <si>
+    <t>vprintproxy.exe</t>
+  </si>
+  <si>
+    <t>conhost.exe</t>
+  </si>
+  <si>
+    <t>Xshell.exe</t>
+  </si>
+  <si>
+    <t>XshellCore.exe</t>
+  </si>
+  <si>
+    <t>mstsc.exe</t>
+  </si>
+  <si>
+    <t>cmd.exe</t>
+  </si>
+  <si>
+    <t>taskmgr.exe</t>
+  </si>
+  <si>
+    <t>MySQLWorkbench.exe</t>
+  </si>
+  <si>
+    <t>TrustedInstaller.exe</t>
+  </si>
+  <si>
+    <t>msdtc.exe</t>
+  </si>
+  <si>
+    <t>mscorsvw.exe</t>
+  </si>
+  <si>
+    <t>mmc.exe</t>
+  </si>
+  <si>
+    <t>WmiPrvSE.exe</t>
+  </si>
+  <si>
+    <t>tasklist.exe</t>
+  </si>
+  <si>
+    <t>FoxitMini.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yzwwin!2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自用服务器远程桌面 16g0r99113.iok.la</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由器192.168.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wildghost0123@yeah.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信开放平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yinzhiwu0987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付密码:yinzhiwu0123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yzw.chenksoft.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金目标管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qhx790310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨科服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev.chenksoft.com:1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yinzhiwu!2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120.25.216.155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.yinzhiwu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>帐号名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帐号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.dodoca.com/index</t>
-  </si>
-  <si>
-    <t>yinzhiwumichael     </t>
-  </si>
-  <si>
-    <t>"音之舞舞蹈全国连锁" 微信公众平台帐号</t>
-  </si>
-  <si>
-    <t>映像名称</t>
-  </si>
-  <si>
-    <t>PID</t>
-  </si>
-  <si>
-    <t>会话名</t>
-  </si>
-  <si>
-    <t>会话#</t>
-  </si>
-  <si>
-    <t>内存使用</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Idle</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>smss.exe</t>
-  </si>
-  <si>
-    <t>csrss.exe</t>
-  </si>
-  <si>
-    <t>wininit.exe</t>
-  </si>
-  <si>
-    <t>Console</t>
-  </si>
-  <si>
-    <t>winlogon.exe</t>
-  </si>
-  <si>
-    <t>services.exe</t>
-  </si>
-  <si>
-    <t>lsass.exe</t>
-  </si>
-  <si>
-    <t>lsm.exe</t>
-  </si>
-  <si>
-    <t>svchost.exe</t>
-  </si>
-  <si>
-    <t>igfxCUIService.exe</t>
-  </si>
-  <si>
-    <t>spoolsv.exe</t>
-  </si>
-  <si>
-    <t>httpd.exe</t>
-  </si>
-  <si>
-    <t>atkexComSvc.exe</t>
-  </si>
-  <si>
-    <t>FoxitProtect.exe</t>
-  </si>
-  <si>
-    <t>HuaweiHiSuiteService64.ex</t>
-  </si>
-  <si>
-    <t>QQProtect.exe</t>
-  </si>
-  <si>
-    <t>vmnat.exe</t>
-  </si>
-  <si>
-    <t>vmnetdhcp.exe</t>
-  </si>
-  <si>
-    <t>vmware-usbarbitrator64.ex</t>
-  </si>
-  <si>
-    <t>vmware-authd.exe</t>
-  </si>
-  <si>
-    <t>vmware-hostd.exe</t>
-  </si>
-  <si>
-    <t>WUDFHost.exe</t>
-  </si>
-  <si>
-    <t>taskeng.exe</t>
-  </si>
-  <si>
-    <t>PresentationFontCache.exe</t>
-  </si>
-  <si>
-    <t>dwm.exe</t>
-  </si>
-  <si>
-    <t>taskhost.exe</t>
-  </si>
-  <si>
-    <t>explorer.exe</t>
-  </si>
-  <si>
-    <t>GoogleUpdate.exe</t>
-  </si>
-  <si>
-    <t>GooglePinyinDaemon.exe</t>
-  </si>
-  <si>
-    <t>QQPYService.exe</t>
-  </si>
-  <si>
-    <t>RAVCpl64.exe</t>
-  </si>
-  <si>
-    <t>igfxEM.exe</t>
-  </si>
-  <si>
-    <t>igfxHK.exe</t>
-  </si>
-  <si>
-    <t>igfxTray.exe</t>
-  </si>
-  <si>
-    <t>YunDetectService.exe</t>
-  </si>
-  <si>
-    <t>Jingoal.exe</t>
-  </si>
-  <si>
-    <t>QQPYClipMonitor.exe</t>
-  </si>
-  <si>
-    <t>vmware-tray.exe</t>
-  </si>
-  <si>
-    <t>MmReminderService.exe</t>
-  </si>
-  <si>
-    <t>TXPlatform.exe</t>
-  </si>
-  <si>
-    <t>JGExternal.exe</t>
-  </si>
-  <si>
-    <t>GoogleCrashHandler.exe</t>
-  </si>
-  <si>
-    <t>GoogleCrashHandler64.exe</t>
-  </si>
-  <si>
-    <t>QQ.exe</t>
-  </si>
-  <si>
-    <t>GooglePinyinService.exe</t>
-  </si>
-  <si>
-    <t>SearchIndexer.exe</t>
-  </si>
-  <si>
-    <t>wmpnetwk.exe</t>
-  </si>
-  <si>
-    <t>audiodg.exe</t>
-  </si>
-  <si>
-    <t>firefox.exe</t>
-  </si>
-  <si>
-    <t>plugin-container.exe</t>
-  </si>
-  <si>
-    <t>FlashPlayerPlugin_23_0_0_</t>
-  </si>
-  <si>
-    <t>WINWORD.EXE</t>
-  </si>
-  <si>
-    <t>vmware.exe</t>
-  </si>
-  <si>
-    <t>dllhost.exe</t>
-  </si>
-  <si>
-    <t>vmware-unity-helper.exe</t>
-  </si>
-  <si>
-    <t>vmware-vmx.exe</t>
-  </si>
-  <si>
-    <t>vprintproxy.exe</t>
-  </si>
-  <si>
-    <t>conhost.exe</t>
-  </si>
-  <si>
-    <t>Xshell.exe</t>
-  </si>
-  <si>
-    <t>XshellCore.exe</t>
-  </si>
-  <si>
-    <t>mstsc.exe</t>
-  </si>
-  <si>
-    <t>cmd.exe</t>
-  </si>
-  <si>
-    <t>taskmgr.exe</t>
-  </si>
-  <si>
-    <t>MySQLWorkbench.exe</t>
-  </si>
-  <si>
-    <t>TrustedInstaller.exe</t>
-  </si>
-  <si>
-    <t>msdtc.exe</t>
-  </si>
-  <si>
-    <t>mscorsvw.exe</t>
-  </si>
-  <si>
-    <t>mmc.exe</t>
-  </si>
-  <si>
-    <t>WmiPrvSE.exe</t>
-  </si>
-  <si>
-    <t>tasklist.exe</t>
-  </si>
-  <si>
-    <t>FoxitMini.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花生壳</t>
+    <t>乐视云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://uc.letvcloud.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username: cttpengyu@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">password: class1208 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.yinzhiwu.com mysql数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">root	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yinzhiwu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url: localhost:3006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞿经理手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YZWjy456</t>
+  </si>
+  <si>
+    <t>yiwu888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16g0r99113.iok.la</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yinzhiwu2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yiwu213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yzw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -353,185 +499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yzwwin!2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自用服务器远程桌面 16g0r99113.iok.la</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路由器192.168.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wildghost0123@yeah.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信开放平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yinzhiwu0987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付密码:yinzhiwu0123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yzw.chenksoft.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Administrator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金目标管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qhx790310</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晨科服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev.chenksoft.com:1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yinzhiwu!2016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120.25.216.155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>www.yinzhiwu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帐号名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐视云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://uc.letvcloud.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username: cttpengyu@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">password: class1208 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>www.yinzhiwu.com mysql数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">root	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yinzhiwu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url: localhost:3006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:00-22:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钉钉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞿经理手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YZWjy456</t>
-  </si>
-  <si>
-    <t>17:30-20:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yiwu888888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月31日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-2--5-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:00-22:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信分销系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16g0r99113.iok.la</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yinzhiwu2016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yiwu213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yzw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Administrator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yinzhiwu!520</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,6 +555,20 @@
   <si>
     <t>yiwu123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七牛云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.qiniu.com/</t>
+  </si>
+  <si>
+    <t>yiwu123456</t>
   </si>
 </sst>
 </file>
@@ -693,7 +674,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,9 +694,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1029,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1046,24 +1024,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="2">
         <v>709877</v>
@@ -1071,140 +1049,140 @@
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>141</v>
+        <v>132</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
         <v>88</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>96</v>
-      </c>
-      <c r="E11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
         <v>98</v>
       </c>
-      <c r="C12" t="s">
-        <v>99</v>
-      </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2">
         <v>13757167781</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
         <v>102</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>103</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>104</v>
-      </c>
-      <c r="E14" t="s">
-        <v>105</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -1212,83 +1190,97 @@
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>112</v>
-      </c>
-      <c r="D17" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
         <v>114</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>115</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>116</v>
-      </c>
-      <c r="E18" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D19">
         <v>790310</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1314,7 +1306,7 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1324,36 +1316,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1362,18 +1354,18 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1382,18 +1374,18 @@
         <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1402,18 +1394,18 @@
         <v>528</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1422,18 +1414,18 @@
         <v>2084</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>452</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1442,18 +1434,18 @@
         <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>460</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1462,18 +1454,18 @@
         <v>21876</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>516</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1482,18 +1474,18 @@
         <v>1548</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>552</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1502,18 +1494,18 @@
         <v>5256</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>568</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1522,18 +1514,18 @@
         <v>8176</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>576</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1542,18 +1534,18 @@
         <v>3488</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>672</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1562,18 +1554,18 @@
         <v>4584</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>748</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1582,18 +1574,18 @@
         <v>7512</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>852</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1602,18 +1594,18 @@
         <v>14892</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>900</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1622,18 +1614,18 @@
         <v>9468</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>924</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1642,18 +1634,18 @@
         <v>27212</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>952</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1662,18 +1654,18 @@
         <v>22468</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>732</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1682,18 +1674,18 @@
         <v>1760</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>1028</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1702,18 +1694,18 @@
         <v>11472</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>1304</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1722,18 +1714,18 @@
         <v>4048</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>1332</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1742,18 +1734,18 @@
         <v>17536</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>1424</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1762,18 +1754,18 @@
         <v>984</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>1476</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1782,18 +1774,18 @@
         <v>1540</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>1564</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1802,18 +1794,18 @@
         <v>7020</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>1592</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1822,18 +1814,18 @@
         <v>1044</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>1620</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1842,18 +1834,18 @@
         <v>368</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>1684</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1862,18 +1854,18 @@
         <v>5768</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>1768</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1882,18 +1874,18 @@
         <v>2676</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>1816</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1902,18 +1894,18 @@
         <v>1512</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>1868</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1922,18 +1914,18 @@
         <v>516</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>1892</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1942,18 +1934,18 @@
         <v>2216</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>2060</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1962,18 +1954,18 @@
         <v>3484</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>2228</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1982,18 +1974,18 @@
         <v>20712</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>2512</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2002,18 +1994,18 @@
         <v>1608</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>2780</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2022,18 +2014,18 @@
         <v>19552</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>2380</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2042,18 +2034,18 @@
         <v>2412</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>2664</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2062,18 +2054,18 @@
         <v>260</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>2676</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2082,18 +2074,18 @@
         <v>464</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>2712</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2102,18 +2094,18 @@
         <v>7152</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>2860</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2122,18 +2114,18 @@
         <v>88192</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>1192</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2142,18 +2134,18 @@
         <v>1812</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>1120</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2162,18 +2154,18 @@
         <v>2632</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>2904</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2182,18 +2174,18 @@
         <v>456</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>3084</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2202,18 +2194,18 @@
         <v>10096</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>3112</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2222,18 +2214,18 @@
         <v>2036</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>3168</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2242,18 +2234,18 @@
         <v>3740</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>3180</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2262,18 +2254,18 @@
         <v>1680</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>3200</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2282,18 +2274,18 @@
         <v>2256</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>3228</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2302,18 +2294,18 @@
         <v>2304</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>3252</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2322,18 +2314,18 @@
         <v>37460</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>3284</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2342,18 +2334,18 @@
         <v>13956</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>3400</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2362,18 +2354,18 @@
         <v>1140</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>3448</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2382,18 +2374,18 @@
         <v>892</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>3648</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2402,18 +2394,18 @@
         <v>1408</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>3924</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2422,18 +2414,18 @@
         <v>936</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>3508</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2442,18 +2434,18 @@
         <v>960</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>3260</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2462,18 +2454,18 @@
         <v>172</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>3388</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2482,18 +2474,18 @@
         <v>93812</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B59">
         <v>3584</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2502,18 +2494,18 @@
         <v>8120</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>4264</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2522,18 +2514,18 @@
         <v>168</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>4312</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2542,18 +2534,18 @@
         <v>27672</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>4484</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2562,18 +2554,18 @@
         <v>11136</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>4880</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2582,18 +2574,18 @@
         <v>17864</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>2692</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2602,18 +2594,18 @@
         <v>664576</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>4940</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2622,18 +2614,18 @@
         <v>5240</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>4220</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -2642,18 +2634,18 @@
         <v>2912</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>1044</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2662,18 +2654,18 @@
         <v>35228</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>1880</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -2682,18 +2674,18 @@
         <v>21464</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B69">
         <v>2052</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -2702,18 +2694,18 @@
         <v>44424</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70">
         <v>3916</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2722,18 +2714,18 @@
         <v>69672</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71">
         <v>5228</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2742,18 +2734,18 @@
         <v>8972</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72">
         <v>3980</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2762,18 +2754,18 @@
         <v>15356</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73">
         <v>5328</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2782,18 +2774,18 @@
         <v>888624</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74">
         <v>4912</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -2802,18 +2794,18 @@
         <v>11648</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75">
         <v>3620</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -2822,18 +2814,18 @@
         <v>3868</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76">
         <v>6304</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -2842,18 +2834,18 @@
         <v>26304</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77">
         <v>6352</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2862,18 +2854,18 @@
         <v>28836</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78">
         <v>6576</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2882,18 +2874,18 @@
         <v>28580</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79">
         <v>6116</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -2902,18 +2894,18 @@
         <v>48572</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80">
         <v>6792</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -2922,18 +2914,18 @@
         <v>3516</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81">
         <v>5596</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2942,18 +2934,18 @@
         <v>19284</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B82">
         <v>2284</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -2962,18 +2954,18 @@
         <v>20720</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B83">
         <v>1236</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -2982,18 +2974,18 @@
         <v>136304</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84">
         <v>7032</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3002,18 +2994,18 @@
         <v>27848</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B85">
         <v>2472</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3022,18 +3014,18 @@
         <v>9080</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B86">
         <v>6080</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3042,18 +3034,18 @@
         <v>12360</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B87">
         <v>3356</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3062,18 +3054,18 @@
         <v>8536</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88">
         <v>6724</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3082,18 +3074,18 @@
         <v>7956</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B89">
         <v>6092</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3102,18 +3094,18 @@
         <v>10036</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B90">
         <v>4876</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -3122,18 +3114,18 @@
         <v>11432</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B91">
         <v>7064</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3142,18 +3134,18 @@
         <v>7420</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B92">
         <v>5924</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -3162,78 +3154,7 @@
         <v>6352</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="7">
-        <v>42818</v>
-      </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
-        <v>42826</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
-        <v>42827</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
-        <v>42855</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
